--- a/DataTable.xlsx
+++ b/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dboze\Documents\LocalRepo-Web\ACNH\Blazor-Animal-Crossing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1C20C-AED6-48F8-92C1-40D072F8D8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD474158-397E-4D03-9ACF-FF02C96706DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5F849A1F-89BC-41B3-B0BD-3B08F8B4A582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F849A1F-89BC-41B3-B0BD-3B08F8B4A582}"/>
   </bookViews>
   <sheets>
     <sheet name="BugData" sheetId="3" r:id="rId1"/>
@@ -2448,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB13D7E-E51B-4A45-985B-994BB5D7AEB0}">
   <dimension ref="A1:AV88"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16505,14 +16505,14 @@
         <v>463</v>
       </c>
       <c r="AR3" t="str">
-        <f t="shared" ref="AR3:AT46" si="13">CONCATENATE(P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3)</f>
+        <f t="shared" ref="AR3:AR46" si="13">CONCATENATE(P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3)</f>
         <v>(2,'Acorn barnacle','Acorn barnacle.PNG',600,'Tiny',0,23,0,23,1,12,1,12)</v>
       </c>
       <c r="AS3" t="s">
         <v>462</v>
       </c>
       <c r="AT3" t="str">
-        <f t="shared" ref="AT3:AV46" si="14">CONCATENATE(AR3,AS3)</f>
+        <f t="shared" ref="AT3:AT46" si="14">CONCATENATE(AR3,AS3)</f>
         <v>(2,'Acorn barnacle','Acorn barnacle.PNG',600,'Tiny',0,23,0,23,1,12,1,12),</v>
       </c>
       <c r="AV3" t="s">
@@ -22938,7 +22938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE2B141-9642-44AF-90BA-427DCB5132DC}">
   <dimension ref="A1:AV87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23338,7 +23338,7 @@
         <v>462</v>
       </c>
       <c r="AT3" t="str">
-        <f t="shared" ref="AT3:AV66" si="14">CONCATENATE(P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
+        <f t="shared" ref="AT3:AT66" si="14">CONCATENATE(P3,Q3,R3,S3,T3,U3,V3,W3,X3,Y3,Z3,AA3,AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
         <v>(2,'Angelfish','Angelfish.png',3000,'Small','River',16,9,16,9,5,10,11,4),</v>
       </c>
       <c r="AV3" t="s">
@@ -33258,7 +33258,7 @@
         <v>462</v>
       </c>
       <c r="AT67" t="str">
-        <f t="shared" ref="AT67:AV86" si="29">CONCATENATE(P67,Q67,R67,S67,T67,U67,V67,W67,X67,Y67,Z67,AA67,AB67,AC67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67)</f>
+        <f t="shared" ref="AT67:AT86" si="29">CONCATENATE(P67,Q67,R67,S67,T67,U67,V67,W67,X67,Y67,Z67,AA67,AB67,AC67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67)</f>
         <v>(66,'Saddled bichir','Saddled bichir.png',4000,'Large','River',21,4,21,4,6,9,12,3),</v>
       </c>
       <c r="AV67" t="s">
